--- a/Data Extraction Form CV and Risk .xlsx
+++ b/Data Extraction Form CV and Risk .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2991163s\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C22986-BC63-4CF3-824B-E908A4E9262D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7183FC7-51CF-4B92-9856-EE5387A41C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3165" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{2C819FC8-EB98-4009-A756-239CF80B819C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2C819FC8-EB98-4009-A756-239CF80B819C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,9 +1059,6 @@
     <t>Only cohort studies, cross-sectional studies, and randomized controlled trials were included.</t>
   </si>
   <si>
-    <t xml:space="preserve">see CV tables </t>
-  </si>
-  <si>
     <t xml:space="preserve">None for arterial hypertension, dyslipidemia, or insulin resistance- </t>
   </si>
   <si>
@@ -2342,7 +2339,10 @@
     <t>aside from Bowers both Schiem and Staples samples are based on transwomen only and so whilst they present a level lower than the overall average its still increased compared to women only samples</t>
   </si>
   <si>
-    <t>Evidence is inconsistent as to whether estrogen use increases the risk of perioperative thrombosis, suggests that transdermal estrogen is the better formation for VTE risk, oral contraceptives and hormone therapy. --- All of the studies that were used for transgender women were taken from samples of Cisgender people</t>
+    <t>Evidence is inconsistent as to whether estrogen use increases the risk of perioperative thrombosis, suggests that transdermal estrogen is the better formation for VTE risk,  --- All of the studies that were used for transgender women were taken from samples of Cisgender people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see CV tables two of the studies seemed to indicate that there was an increase in TIA but this was contradicted by other studdies which found little to no increase in stroke incidence. Mixed evidence for VTE with some finding increases but this  appears to be when Ethinyl estrogen is involved or when the type of oestrogen is not mentioned. no increased risk of hypertension indicated one of the two papers found some increase of t2dm prev but this could be due to screening around HRT. Conflicting result on Arterial blood pressure. most studdies found that there was an increase in HDLC and decrease in LDLC in TW whereas this is more ambiguous in TM- the mechanics are unclear as to how this comes about. literature suggests no overall increase in insulin resistance in those taking HRT- status quo or increase in BMI found in most studdies but not more likley to be obese. inc in visceral fat in subcuteneous fat in trans women and increase of visceral fat  in TW- increase in Hemocrit levels in trans men in the first 3 months of HRT </t>
   </si>
 </sst>
 </file>
@@ -2760,16 +2760,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3417,37 +3417,37 @@
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>681</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>687</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>688</v>
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="14"/>
@@ -4505,10 +4505,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79607C8D-ABC4-45B7-A929-2CCC06D99A5A}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A18" sqref="A18"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4518,8 +4518,7 @@
     <col min="3" max="3" width="62.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="42.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" style="11" customWidth="1"/>
+    <col min="6" max="7" width="48.5703125" style="11" customWidth="1"/>
     <col min="8" max="8" width="40.7109375" style="11" customWidth="1"/>
     <col min="9" max="9" width="42.85546875" style="11" customWidth="1"/>
     <col min="10" max="10" width="39.7109375" style="11" customWidth="1"/>
@@ -4536,28 +4535,28 @@
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>586</v>
-      </c>
       <c r="J1" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
@@ -4620,16 +4619,16 @@
         <v>317</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
@@ -4696,16 +4695,16 @@
         <v>318</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -4756,16 +4755,16 @@
         <v>266</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -4824,16 +4823,16 @@
         <v>320</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -4934,16 +4933,16 @@
         <v>337</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -4960,7 +4959,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>296</v>
@@ -4972,13 +4971,13 @@
         <v>321</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>232</v>
@@ -5008,16 +5007,16 @@
         <v>322</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -5046,16 +5045,16 @@
         <v>284</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -5084,16 +5083,16 @@
         <v>284</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -5125,13 +5124,13 @@
         <v>332</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -5175,7 +5174,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>61</v>
@@ -5184,7 +5183,7 @@
         <v>61</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
@@ -5193,7 +5192,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="1:16" ht="204" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -5207,22 +5206,22 @@
         <v>301</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>762</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>338</v>
-      </c>
       <c r="G20" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -5248,19 +5247,19 @@
         <v>315</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -5282,19 +5281,19 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -5346,19 +5345,19 @@
         <v>316</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -5384,19 +5383,19 @@
         <v>316</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -5460,7 +5459,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="8"/>
     </row>
@@ -5713,7 +5712,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K13" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -5970,37 +5969,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="G2" s="84" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E3" s="81"/>
       <c r="G3" s="84"/>
@@ -6009,10 +6008,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C4" s="70">
         <v>0.33200000000000002</v>
@@ -6029,10 +6028,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C5" s="74">
         <v>0.109</v>
@@ -6049,10 +6048,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C6" s="23">
         <v>21.9</v>
@@ -6069,10 +6068,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C7" s="71">
         <v>42.2</v>
@@ -6089,10 +6088,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C8" s="75">
         <v>22.7</v>
@@ -6104,26 +6103,26 @@
         <v>32</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C9" s="71">
         <v>46.4</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G9" s="84"/>
       <c r="H9" s="84"/>
@@ -6131,19 +6130,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>627</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>628</v>
       </c>
       <c r="C10" s="71">
         <v>47</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G10" s="84"/>
       <c r="H10" s="84"/>
@@ -6151,19 +6150,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C11" s="71">
         <v>29.9</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G11" s="84"/>
       <c r="H11" s="84"/>
@@ -6171,19 +6170,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="C12" s="71" t="s">
         <v>631</v>
       </c>
-      <c r="C12" s="71" t="s">
-        <v>632</v>
-      </c>
       <c r="D12" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G12" s="84"/>
       <c r="H12" s="84"/>
@@ -6191,29 +6190,29 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C13" s="73">
         <v>0.16</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G13" s="84" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H13" s="84"/>
       <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>90</v>
@@ -6222,10 +6221,10 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G14" s="84"/>
       <c r="H14" s="84"/>
@@ -6233,19 +6232,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
+        <v>636</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>637</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>638</v>
       </c>
       <c r="C15" s="71">
         <v>32.9</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="84"/>
@@ -6253,19 +6252,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>639</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>640</v>
       </c>
       <c r="C16" s="72">
         <v>0.35</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G16" s="84"/>
       <c r="H16" s="84"/>
@@ -6273,19 +6272,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C17" s="64">
         <v>0.215</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G17" s="84"/>
       <c r="H17" s="84"/>
@@ -6307,448 +6306,448 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>641</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>642</v>
       </c>
       <c r="C21" s="27">
         <v>39.700000000000003</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C22" s="62">
         <v>38.700000000000003</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C23" s="31">
         <v>0.74199999999999999</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C24" s="65">
         <v>0.48199999999999998</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C25" s="31">
         <v>0.14799999999999999</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C26" s="66">
         <v>0.73</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C27" s="31">
         <v>0.23799999999999999</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C28" s="66">
         <v>0.57999999999999996</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C29" s="59">
         <v>0.97</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C30" s="66">
         <v>0.76</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C31" s="59">
         <v>0.69</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C32" s="65">
         <v>0.112</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C33" s="59">
         <v>0.18</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
+        <v>661</v>
+      </c>
+      <c r="B34" s="62" t="s">
         <v>662</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>663</v>
       </c>
       <c r="C34" s="66">
         <v>0.36</v>
       </c>
       <c r="D34" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C35" s="31">
         <v>0.57499999999999996</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C36" s="65">
         <v>0.63600000000000001</v>
       </c>
       <c r="D36" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C37" s="31">
         <v>0.67400000000000004</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="62" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C38" s="65">
         <v>0.61099999999999999</v>
       </c>
       <c r="D38" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C39" s="31">
         <v>0.66700000000000004</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C40" s="65">
         <v>0.57899999999999996</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E40" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C41" s="31">
         <v>0.46870000000000001</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C42" s="65">
         <v>0.3125</v>
       </c>
       <c r="D42" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C43" s="59">
         <v>0.45</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="62" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C44" s="66">
         <v>0.65</v>
       </c>
       <c r="D44" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E44" s="63" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>677</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>678</v>
       </c>
       <c r="C45" s="31">
         <v>0.373</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6786,28 +6785,28 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
-        <v>694</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="A3" s="87" t="s">
+        <v>693</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
@@ -6817,25 +6816,25 @@
         <v>323</v>
       </c>
       <c r="C4" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>695</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="86" t="s">
         <v>696</v>
       </c>
-      <c r="E4" s="87" t="s">
-        <v>697</v>
-      </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>698</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>699</v>
       </c>
       <c r="D5" s="7">
         <v>1.51</v>
@@ -6852,10 +6851,10 @@
         <v>329</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D6" s="52">
         <v>0.85</v>
@@ -6872,10 +6871,10 @@
         <v>329</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D7" s="7">
         <v>1.64</v>
@@ -6892,10 +6891,10 @@
         <v>329</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D8" s="52">
         <v>1.26</v>
@@ -6909,13 +6908,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>704</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D9" s="7">
         <v>0.77</v>
@@ -6929,13 +6928,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>334</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D10" s="52">
         <v>0.71</v>
@@ -6949,7 +6948,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -6965,25 +6964,25 @@
         <v>323</v>
       </c>
       <c r="C13" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>695</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="E13" s="86" t="s">
         <v>696</v>
       </c>
-      <c r="E13" s="87" t="s">
-        <v>697</v>
-      </c>
-      <c r="F13" s="87"/>
+      <c r="F13" s="86"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D14" s="7">
         <v>1.1200000000000001</v>
@@ -7000,10 +6999,10 @@
         <v>329</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D15" s="52">
         <v>1.19</v>
@@ -7017,13 +7016,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>704</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D16" s="7">
         <v>0.4</v>
@@ -7036,14 +7035,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
-        <v>707</v>
-      </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+      <c r="A18" s="88" t="s">
+        <v>706</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
@@ -7053,25 +7052,25 @@
         <v>323</v>
       </c>
       <c r="C19" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="D19" s="51" t="s">
         <v>695</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="E19" s="86" t="s">
         <v>696</v>
       </c>
-      <c r="E19" s="87" t="s">
-        <v>697</v>
-      </c>
-      <c r="F19" s="87"/>
+      <c r="F19" s="86"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D20" s="7">
         <v>2.8</v>
@@ -7088,10 +7087,10 @@
         <v>330</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D21" s="52">
         <v>2.5</v>
@@ -7104,24 +7103,24 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="86" t="s">
+        <v>709</v>
+      </c>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="87" t="s">
         <v>710</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
-        <v>711</v>
-      </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
@@ -7131,25 +7130,25 @@
         <v>323</v>
       </c>
       <c r="C25" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="D25" s="51" t="s">
         <v>695</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="E25" s="86" t="s">
         <v>696</v>
       </c>
-      <c r="E25" s="87" t="s">
-        <v>697</v>
-      </c>
-      <c r="F25" s="87"/>
+      <c r="F25" s="86"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>331</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D26" s="7">
         <v>0.98</v>
@@ -7163,13 +7162,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>300</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D27" s="52">
         <v>19.559999999999999</v>
@@ -7183,13 +7182,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>326</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D28" s="7">
         <v>50</v>
@@ -7203,13 +7202,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D29" s="52">
         <v>1.71</v>
@@ -7223,7 +7222,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B31" s="85"/>
       <c r="C31" s="85"/>
@@ -7239,25 +7238,25 @@
         <v>323</v>
       </c>
       <c r="C32" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="D32" s="51" t="s">
         <v>695</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="E32" s="86" t="s">
         <v>696</v>
       </c>
-      <c r="E32" s="87" t="s">
-        <v>697</v>
-      </c>
-      <c r="F32" s="87"/>
+      <c r="F32" s="86"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>331</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D33" s="7">
         <v>0.84</v>
@@ -7271,13 +7270,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>300</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D34" s="52">
         <v>9.09</v>
@@ -7291,13 +7290,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>334</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D35" s="7">
         <v>0.34</v>
@@ -7310,26 +7309,26 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="86" t="s">
+        <v>714</v>
+      </c>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="87" t="s">
         <v>715</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
-        <v>716</v>
-      </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="51" t="s">
@@ -7339,25 +7338,25 @@
         <v>323</v>
       </c>
       <c r="C39" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="86"/>
+      <c r="F39" s="51" t="s">
         <v>717</v>
       </c>
-      <c r="D39" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="51" t="s">
+      <c r="G39" s="51" t="s">
         <v>718</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="C40" s="53">
         <v>0.29199999999999998</v>
@@ -7377,7 +7376,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>334</v>
@@ -7400,10 +7399,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C42" s="53">
         <v>3.5000000000000003E-2</v>
@@ -7423,7 +7422,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>332</v>
@@ -7446,7 +7445,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>333</v>
@@ -7469,7 +7468,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="85" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
@@ -7486,25 +7485,25 @@
         <v>323</v>
       </c>
       <c r="C47" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="D47" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="86"/>
+      <c r="F47" s="51" t="s">
         <v>717</v>
       </c>
-      <c r="D47" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="51" t="s">
+      <c r="G47" s="51" t="s">
         <v>718</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="C48" s="53">
         <v>0.252</v>
@@ -7524,7 +7523,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>334</v>
@@ -7547,10 +7546,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C50" s="53">
         <v>3.1E-2</v>
@@ -7570,7 +7569,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>332</v>
@@ -7593,7 +7592,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>333</v>
@@ -7615,46 +7614,46 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="86" t="s">
+        <v>723</v>
+      </c>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="87" t="s">
         <v>724</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="86" t="s">
-        <v>725</v>
-      </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="51" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B56" s="51" t="s">
         <v>323</v>
       </c>
       <c r="C56" s="51" t="s">
+        <v>726</v>
+      </c>
+      <c r="D56" s="51" t="s">
         <v>727</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="E56" s="51" t="s">
         <v>728</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="C57" s="7">
         <v>60.7</v>
@@ -7668,10 +7667,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C58" s="52">
         <v>18.7</v>
@@ -7685,10 +7684,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C59" s="7">
         <v>42</v>
@@ -7702,10 +7701,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C60" s="52">
         <v>23.4</v>
@@ -7719,7 +7718,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B62" s="85"/>
       <c r="C62" s="85"/>
@@ -7728,27 +7727,27 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B63" s="51" t="s">
         <v>323</v>
       </c>
       <c r="C63" s="51" t="s">
+        <v>726</v>
+      </c>
+      <c r="D63" s="51" t="s">
         <v>727</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="E63" s="51" t="s">
         <v>728</v>
-      </c>
-      <c r="E63" s="51" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>730</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="C64" s="7">
         <v>14.5</v>
@@ -7762,10 +7761,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C65" s="52">
         <v>0</v>
@@ -7779,10 +7778,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C66" s="7">
         <v>36.200000000000003</v>
@@ -7795,31 +7794,31 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="86" t="s">
-        <v>736</v>
-      </c>
-      <c r="B69" s="86"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="86"/>
+      <c r="A69" s="87" t="s">
+        <v>735</v>
+      </c>
+      <c r="B69" s="87"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="51"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>737</v>
-      </c>
-      <c r="D70" s="87" t="s">
-        <v>618</v>
-      </c>
-      <c r="E70" s="87"/>
+        <v>736</v>
+      </c>
+      <c r="D70" s="86" t="s">
+        <v>617</v>
+      </c>
+      <c r="E70" s="86"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="C71" s="56">
         <v>5.5</v>
@@ -7833,10 +7832,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C72" s="57">
         <v>1.9</v>
@@ -7850,10 +7849,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C73" s="56">
         <v>2</v>
@@ -7867,10 +7866,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C74" s="57">
         <v>4.8</v>
@@ -7884,10 +7883,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C75" s="56">
         <v>1.2</v>
@@ -7901,10 +7900,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C76" s="57">
         <v>1.8</v>
@@ -7918,7 +7917,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>334</v>
@@ -7935,10 +7934,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C78" s="57">
         <v>0.9</v>
@@ -7952,10 +7951,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C79" s="56">
         <v>1.8</v>
@@ -7968,33 +7967,33 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="86" t="s">
-        <v>747</v>
-      </c>
-      <c r="B81" s="86"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="86"/>
+      <c r="A81" s="87" t="s">
+        <v>746</v>
+      </c>
+      <c r="B81" s="87"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="87"/>
     </row>
     <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="51"/>
       <c r="B82" s="51"/>
       <c r="C82" s="58" t="s">
+        <v>747</v>
+      </c>
+      <c r="D82" s="58" t="s">
         <v>748</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="E82" s="58" t="s">
         <v>749</v>
-      </c>
-      <c r="E82" s="58" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="B83" s="51" t="s">
         <v>751</v>
-      </c>
-      <c r="B83" s="51" t="s">
-        <v>752</v>
       </c>
       <c r="C83" s="53">
         <v>6.0000000000000001E-3</v>
@@ -8008,10 +8007,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="51" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C84" s="53">
         <v>3.6999999999999998E-2</v>
@@ -8025,7 +8024,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="51" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B85" s="51" t="s">
         <v>333</v>
@@ -8042,6 +8041,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="A37:G37"/>
@@ -8051,20 +8064,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8092,55 +8091,55 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="90" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
       <c r="I1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D2" t="s">
         <v>754</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="67" t="s">
         <v>375</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>376</v>
       </c>
       <c r="E3" s="42">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I3" t="s">
         <v>300</v>
@@ -8149,49 +8148,49 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>379</v>
-      </c>
       <c r="D4" s="67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K4" s="90" t="s">
         <v>114</v>
       </c>
       <c r="L4" s="90"/>
       <c r="M4" t="s">
+        <v>566</v>
+      </c>
+      <c r="N4" s="47" t="s">
         <v>567</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="68" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>382</v>
-      </c>
       <c r="E5" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J5" s="44">
         <v>0.02</v>
@@ -8206,24 +8205,24 @@
         <v>0.89180000000000004</v>
       </c>
       <c r="N5" s="48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>385</v>
-      </c>
       <c r="D6" s="67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E6" s="42">
         <v>0.05</v>
       </c>
       <c r="I6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J6" s="44">
         <v>0.03</v>
@@ -8238,24 +8237,24 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="N6" s="48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C7" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>386</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>387</v>
       </c>
       <c r="E7" s="42">
         <v>0.53</v>
       </c>
       <c r="I7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J7" s="44">
         <v>0</v>
@@ -8275,19 +8274,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="D8" s="67" t="s">
         <v>389</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>390</v>
       </c>
       <c r="E8" s="42">
         <v>0.01</v>
       </c>
       <c r="I8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J8" s="44">
         <v>0.01</v>
@@ -8307,19 +8306,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="67" t="s">
         <v>392</v>
       </c>
-      <c r="C9" s="67" t="s">
-        <v>393</v>
-      </c>
       <c r="D9" s="67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E9" s="42">
         <v>0.21</v>
       </c>
       <c r="I9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J9" s="44">
         <v>0</v>
@@ -8346,28 +8345,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D11" t="s">
         <v>754</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I11" t="s">
+        <v>575</v>
+      </c>
+      <c r="J11" t="s">
         <v>576</v>
-      </c>
-      <c r="J11" t="s">
-        <v>577</v>
       </c>
       <c r="K11" s="90" t="s">
         <v>114</v>
@@ -8379,22 +8378,22 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="67" t="s">
+        <v>591</v>
+      </c>
+      <c r="D12" s="67" t="s">
         <v>592</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>593</v>
       </c>
       <c r="E12" s="42">
         <v>0.81</v>
       </c>
       <c r="I12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J12" s="45">
         <v>6.3E-3</v>
@@ -8411,19 +8410,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C13" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>594</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>595</v>
       </c>
       <c r="E13" s="42">
         <v>0.08</v>
       </c>
       <c r="I13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J13">
         <v>1.1000000000000001E-3</v>
@@ -8435,18 +8434,18 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="M13" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C14" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="D14" s="67" t="s">
         <v>596</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>597</v>
       </c>
       <c r="E14" s="42">
         <v>0.17</v>
@@ -8455,13 +8454,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C15" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="D15" s="67" t="s">
         <v>598</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>599</v>
       </c>
       <c r="E15" s="42">
         <v>0.01</v>
@@ -8469,67 +8468,67 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C18" t="s">
+        <v>753</v>
+      </c>
+      <c r="D18" t="s">
         <v>754</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="D19" s="68" t="s">
         <v>395</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>394</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>396</v>
       </c>
       <c r="E19" s="42">
         <v>0.65600000000000003</v>
       </c>
       <c r="F19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="C20" s="68" t="s">
-        <v>399</v>
-      </c>
       <c r="D20" s="68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" s="67" t="s">
         <v>401</v>
       </c>
-      <c r="C21" s="67" t="s">
-        <v>402</v>
-      </c>
       <c r="D21" s="67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E21" s="42">
         <v>2E-3</v>
@@ -8537,13 +8536,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C22" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="C22" s="67" t="s">
-        <v>405</v>
-      </c>
       <c r="D22" s="67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E22" s="42">
         <v>0.76600000000000001</v>
@@ -8551,27 +8550,27 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C23" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="D23" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="D23" s="67" t="s">
-        <v>408</v>
-      </c>
       <c r="E23" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" s="68" t="s">
         <v>410</v>
       </c>
-      <c r="C24" s="68" t="s">
-        <v>411</v>
-      </c>
       <c r="D24" s="68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E24" s="42">
         <v>5.0000000000000001E-3</v>
@@ -8579,13 +8578,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E25" s="42">
         <v>3.2000000000000001E-2</v>
@@ -8593,63 +8592,63 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" t="s">
+        <v>753</v>
+      </c>
+      <c r="D27" t="s">
         <v>754</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="C29" s="68" t="s">
-        <v>416</v>
-      </c>
       <c r="D29" s="68" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E29" s="42">
         <v>0.81299999999999994</v>
       </c>
       <c r="F29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E30" s="42">
         <v>1</v>
@@ -8657,16 +8656,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D31" s="68" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E31" s="42">
         <v>0.625</v>
@@ -8674,16 +8673,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C32" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="C32" s="68" t="s">
-        <v>423</v>
-      </c>
       <c r="D32" s="68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E32" s="42">
         <v>0.81299999999999994</v>
@@ -8691,16 +8690,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="C33" s="67" t="s">
-        <v>426</v>
-      </c>
       <c r="D33" s="67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E33" s="42">
         <v>6.3E-2</v>
@@ -8708,23 +8707,23 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="D36" s="67" t="s">
         <v>427</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>429</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>428</v>
       </c>
       <c r="E36" s="42">
         <v>0.625</v>
@@ -8732,16 +8731,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B37" t="s">
+        <v>430</v>
+      </c>
+      <c r="C37" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="C37" s="67" t="s">
-        <v>432</v>
-      </c>
       <c r="D37" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E37" s="42">
         <v>0.438</v>
@@ -8749,16 +8748,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B38" t="s">
+        <v>433</v>
+      </c>
+      <c r="C38" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="C38" s="67" t="s">
-        <v>435</v>
-      </c>
       <c r="D38" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E38" s="42">
         <v>0.188</v>
@@ -8766,16 +8765,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E39" s="42">
         <v>0.81299999999999994</v>
@@ -8783,16 +8782,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C40" s="68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E40" s="42">
         <v>0.438</v>
@@ -8800,23 +8799,23 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E43" s="42">
         <v>0.75</v>
@@ -8824,16 +8823,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D44" s="68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E44" s="42">
         <v>0.25</v>
@@ -8841,16 +8840,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D45" s="67" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E45" s="42">
         <v>0.63</v>
@@ -8858,16 +8857,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D46" s="67" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E46" s="42">
         <v>0.188</v>
@@ -8875,16 +8874,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D47" s="67" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E47" s="42">
         <v>0.313</v>
@@ -8892,56 +8891,56 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C49" t="s">
+        <v>753</v>
+      </c>
+      <c r="D49" t="s">
         <v>754</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E49" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D50" s="67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E50" s="42">
         <v>0.03</v>
       </c>
       <c r="F50" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B51" t="s">
+        <v>452</v>
+      </c>
+      <c r="C51" s="67" t="s">
         <v>453</v>
       </c>
-      <c r="C51" s="67" t="s">
-        <v>454</v>
-      </c>
       <c r="D51" s="67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E51" s="42">
         <v>0.02</v>
@@ -8949,33 +8948,33 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B52" t="s">
+        <v>455</v>
+      </c>
+      <c r="C52" s="68" t="s">
         <v>456</v>
       </c>
-      <c r="C52" s="68" t="s">
-        <v>457</v>
-      </c>
       <c r="D52" s="68" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E53" s="42">
         <v>0.22</v>
@@ -8983,16 +8982,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C54" s="67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D54" s="67" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E54" s="42">
         <v>0.53</v>
@@ -9000,16 +8999,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B55" t="s">
+        <v>462</v>
+      </c>
+      <c r="C55" s="67" t="s">
         <v>463</v>
       </c>
-      <c r="C55" s="67" t="s">
-        <v>464</v>
-      </c>
       <c r="D55" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E55" s="42">
         <v>0.04</v>
@@ -9017,16 +9016,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B56" t="s">
+        <v>465</v>
+      </c>
+      <c r="C56" s="67" t="s">
         <v>466</v>
       </c>
-      <c r="C56" s="67" t="s">
-        <v>467</v>
-      </c>
       <c r="D56" s="67" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E56" s="42">
         <v>0.02</v>
@@ -9034,121 +9033,121 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C58" t="s">
+        <v>753</v>
+      </c>
+      <c r="D58" t="s">
         <v>754</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E58" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C59" s="67" t="s">
+        <v>467</v>
+      </c>
+      <c r="D59" s="67" t="s">
         <v>468</v>
       </c>
-      <c r="D59" s="67" t="s">
-        <v>469</v>
-      </c>
       <c r="F59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C60" s="67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D60" s="67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D61" s="67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D62" s="67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C63" s="67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D63" s="67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C64" s="68" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D64" s="68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E64" s="42">
         <v>0.05</v>
@@ -9156,161 +9155,161 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C66" t="s">
+        <v>753</v>
+      </c>
+      <c r="D66" t="s">
         <v>754</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E66" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D67" s="67" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F67" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C68" s="67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D68" s="67" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B69" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C69" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="D69" s="68" t="s">
         <v>484</v>
       </c>
-      <c r="D69" s="68" t="s">
-        <v>485</v>
-      </c>
       <c r="E69" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C70" s="68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D70" s="68" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C72" t="s">
+        <v>753</v>
+      </c>
+      <c r="D72" t="s">
         <v>754</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E72" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F72" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B73" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C73" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" s="67" t="s">
         <v>489</v>
-      </c>
-      <c r="D73" s="67" t="s">
-        <v>490</v>
       </c>
       <c r="E73" s="42">
         <v>0.47</v>
       </c>
       <c r="F73" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B74" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C74" s="68" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D74" s="68" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D75" s="67" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E75" s="42">
         <v>0.32</v>
@@ -9318,16 +9317,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C76" s="68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D76" s="68" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E76" s="42">
         <v>0.77</v>
@@ -9335,16 +9334,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B77" t="s">
+        <v>497</v>
+      </c>
+      <c r="C77" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="C77" s="67" t="s">
-        <v>499</v>
-      </c>
       <c r="D77" s="67" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E77" s="42">
         <v>0.91</v>
@@ -9352,192 +9351,192 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C79" t="s">
+        <v>753</v>
+      </c>
+      <c r="D79" t="s">
         <v>754</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E79" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F79" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C80" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="D80" s="67" t="s">
         <v>500</v>
       </c>
-      <c r="D80" s="67" t="s">
-        <v>501</v>
-      </c>
       <c r="F80" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B81" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C81" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="D81" s="67" t="s">
         <v>502</v>
       </c>
-      <c r="D81" s="67" t="s">
-        <v>503</v>
-      </c>
       <c r="E81" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B82" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C82" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="D82" s="67" t="s">
         <v>504</v>
       </c>
-      <c r="D82" s="67" t="s">
-        <v>505</v>
-      </c>
       <c r="E82" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B83" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C83" s="67" t="s">
+        <v>505</v>
+      </c>
+      <c r="D83" s="67" t="s">
         <v>506</v>
       </c>
-      <c r="D83" s="67" t="s">
-        <v>507</v>
-      </c>
       <c r="E83" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C84" s="68" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D84" s="68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B85" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C85" s="68" t="s">
+        <v>509</v>
+      </c>
+      <c r="D85" s="68" t="s">
         <v>510</v>
       </c>
-      <c r="D85" s="68" t="s">
-        <v>511</v>
-      </c>
       <c r="E85" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C86" s="68" t="s">
+        <v>511</v>
+      </c>
+      <c r="D86" s="68" t="s">
         <v>512</v>
-      </c>
-      <c r="D86" s="68" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B88" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C88" t="s">
+        <v>753</v>
+      </c>
+      <c r="D88" t="s">
         <v>754</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E88" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F88" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B89" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C89" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="D89" s="68" t="s">
         <v>602</v>
-      </c>
-      <c r="D89" s="68" t="s">
-        <v>603</v>
       </c>
       <c r="E89" s="42">
         <v>0.03</v>
       </c>
       <c r="F89" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B90" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C90" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="D90" s="67" t="s">
         <v>514</v>
-      </c>
-      <c r="D90" s="67" t="s">
-        <v>515</v>
       </c>
       <c r="E90" s="42">
         <v>0.14000000000000001</v>
@@ -9545,16 +9544,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B91" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C91" s="68" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D91" s="68" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E91" s="42">
         <v>4.0000000000000001E-3</v>
@@ -9562,110 +9561,110 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C93" t="s">
+        <v>753</v>
+      </c>
+      <c r="D93" t="s">
         <v>754</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="E93" s="42" t="s">
-        <v>756</v>
-      </c>
       <c r="F93" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B94" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C94" s="67" t="s">
+        <v>517</v>
+      </c>
+      <c r="D94" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="D94" s="67" t="s">
-        <v>519</v>
-      </c>
       <c r="E94" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F94" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C95" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="D95" s="68" t="s">
         <v>520</v>
       </c>
-      <c r="D95" s="68" t="s">
-        <v>521</v>
-      </c>
       <c r="E95" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B96" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C96" s="68" t="s">
+        <v>521</v>
+      </c>
+      <c r="D96" s="68" t="s">
         <v>522</v>
       </c>
-      <c r="D96" s="68" t="s">
-        <v>523</v>
-      </c>
       <c r="E96" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C97" s="68" t="s">
+        <v>523</v>
+      </c>
+      <c r="D97" s="68" t="s">
         <v>524</v>
       </c>
-      <c r="D97" s="68" t="s">
-        <v>525</v>
-      </c>
       <c r="E97" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B98" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C98" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D98" s="67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/Data Extraction Form CV and Risk .xlsx
+++ b/Data Extraction Form CV and Risk .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2991163s\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7183FC7-51CF-4B92-9856-EE5387A41C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD1A24-5428-4ADB-BF2C-0CE8DCBE3681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2C819FC8-EB98-4009-A756-239CF80B819C}"/>
+    <workbookView xWindow="-28920" yWindow="-3165" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{2C819FC8-EB98-4009-A756-239CF80B819C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1799,9 +1799,6 @@
     <t>See table- a low rate of VTE must be accounted for in those who have been on estrogen therapy for 4-5 years and especially in older people.</t>
   </si>
   <si>
-    <t xml:space="preserve">there was lacking information on BMI smoking, diagnosis of T2DM Dyslipidemia and hypertension within the studies - the paucity (scarcity) of avalable data didn’t allow for the authors to find the best estrogen treatment regimen associated with the lowest risk for vte- transderman estrogens and oral estradiol valerate are reccomended by wpath for those with vte risk factors but ethinyl estradiol is not reccoended </t>
-  </si>
-  <si>
     <t xml:space="preserve">ministerio dell istruzione universita e ricera (MIUR) </t>
   </si>
   <si>
@@ -2342,7 +2339,26 @@
     <t>Evidence is inconsistent as to whether estrogen use increases the risk of perioperative thrombosis, suggests that transdermal estrogen is the better formation for VTE risk,  --- All of the studies that were used for transgender women were taken from samples of Cisgender people</t>
   </si>
   <si>
-    <t xml:space="preserve">see CV tables two of the studies seemed to indicate that there was an increase in TIA but this was contradicted by other studdies which found little to no increase in stroke incidence. Mixed evidence for VTE with some finding increases but this  appears to be when Ethinyl estrogen is involved or when the type of oestrogen is not mentioned. no increased risk of hypertension indicated one of the two papers found some increase of t2dm prev but this could be due to screening around HRT. Conflicting result on Arterial blood pressure. most studdies found that there was an increase in HDLC and decrease in LDLC in TW whereas this is more ambiguous in TM- the mechanics are unclear as to how this comes about. literature suggests no overall increase in insulin resistance in those taking HRT- status quo or increase in BMI found in most studdies but not more likley to be obese. inc in visceral fat in subcuteneous fat in trans women and increase of visceral fat  in TW- increase in Hemocrit levels in trans men in the first 3 months of HRT </t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>see CV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tables two of the studies seemed to indicate that there was an increase in TIA but this was contradicted by other studdies which found little to no increase in stroke incidence. Mixed evidence for VTE with some finding increases but this  appears to be when Ethinyl estrogen is involved or when the type of oestrogen is not mentioned. no increased risk of hypertension indicated one of the two papers found some increase of t2dm prev but this could be due to screening around HRT. Conflicting result on Arterial blood pressure. most studdies found that there was an increase in HDLC and decrease in LDLC in TW whereas this is more ambiguous in TM- the mechanics are unclear as to how this comes about. literature suggests no overall increase in insulin resistance in those taking HRT- status quo or increase in BMI found in most studdies but not more likley to be obese. inc in visceral fat in subcuteneous fat in trans women and increase of visceral fat  in TW- increase in Hemocrit levels in trans men in the first 3 months of HRT </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">there was lacking information on BMI smoking, diagnosis of T2DM Dyslipidemia and hypertension within the studies - the paucity (scarcity) of avalable data didn’t allow for the authors to find the best estrogen treatment regimen associated with the lowest risk for vte- transderman estrogens and oral estradiol valerate are reccomended by wpath for those with vte risk factors but ethinyl estradiol is not reccomende. their analysis suggests that the sample of transgender people within their studdies might not be a representative sample of transgeder people as a whole  </t>
   </si>
 </sst>
 </file>
@@ -3417,37 +3433,37 @@
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>681</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>686</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>687</v>
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="14"/>
@@ -4505,10 +4521,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79607C8D-ABC4-45B7-A929-2CCC06D99A5A}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A18" sqref="A18"/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4535,28 +4551,28 @@
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>585</v>
-      </c>
       <c r="J1" s="16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
@@ -5206,10 +5222,10 @@
         <v>301</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>761</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>762</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>351</v>
@@ -5230,7 +5246,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="1:16" ht="255" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -5259,7 +5275,7 @@
         <v>551</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>581</v>
+        <v>762</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -5357,7 +5373,7 @@
         <v>553</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -5395,7 +5411,7 @@
         <v>554</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -5459,7 +5475,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B1" s="8"/>
     </row>
@@ -5712,7 +5728,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K13" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -5969,37 +5985,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="G2" s="84" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>568</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E3" s="81"/>
       <c r="G3" s="84"/>
@@ -6008,10 +6024,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C4" s="70">
         <v>0.33200000000000002</v>
@@ -6028,10 +6044,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C5" s="74">
         <v>0.109</v>
@@ -6048,10 +6064,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C6" s="23">
         <v>21.9</v>
@@ -6068,10 +6084,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C7" s="71">
         <v>42.2</v>
@@ -6088,10 +6104,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C8" s="75">
         <v>22.7</v>
@@ -6103,26 +6119,26 @@
         <v>32</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C9" s="71">
         <v>46.4</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G9" s="84"/>
       <c r="H9" s="84"/>
@@ -6130,19 +6146,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>626</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>627</v>
       </c>
       <c r="C10" s="71">
         <v>47</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G10" s="84"/>
       <c r="H10" s="84"/>
@@ -6150,19 +6166,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C11" s="71">
         <v>29.9</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G11" s="84"/>
       <c r="H11" s="84"/>
@@ -6170,19 +6186,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="C12" s="71" t="s">
         <v>630</v>
       </c>
-      <c r="C12" s="71" t="s">
-        <v>631</v>
-      </c>
       <c r="D12" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G12" s="84"/>
       <c r="H12" s="84"/>
@@ -6190,29 +6206,29 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C13" s="73">
         <v>0.16</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G13" s="84" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H13" s="84"/>
       <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>90</v>
@@ -6221,10 +6237,10 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G14" s="84"/>
       <c r="H14" s="84"/>
@@ -6232,19 +6248,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
+        <v>635</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>636</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>637</v>
       </c>
       <c r="C15" s="71">
         <v>32.9</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="84"/>
@@ -6252,19 +6268,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>638</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>639</v>
       </c>
       <c r="C16" s="72">
         <v>0.35</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G16" s="84"/>
       <c r="H16" s="84"/>
@@ -6272,19 +6288,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C17" s="64">
         <v>0.215</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G17" s="84"/>
       <c r="H17" s="84"/>
@@ -6306,448 +6322,448 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C20" s="61" t="s">
         <v>568</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>640</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>641</v>
       </c>
       <c r="C21" s="27">
         <v>39.700000000000003</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C22" s="62">
         <v>38.700000000000003</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C23" s="31">
         <v>0.74199999999999999</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C24" s="65">
         <v>0.48199999999999998</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C25" s="31">
         <v>0.14799999999999999</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C26" s="66">
         <v>0.73</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C27" s="31">
         <v>0.23799999999999999</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C28" s="66">
         <v>0.57999999999999996</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C29" s="59">
         <v>0.97</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C30" s="66">
         <v>0.76</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C31" s="59">
         <v>0.69</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C32" s="65">
         <v>0.112</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C33" s="59">
         <v>0.18</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
+        <v>660</v>
+      </c>
+      <c r="B34" s="62" t="s">
         <v>661</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>662</v>
       </c>
       <c r="C34" s="66">
         <v>0.36</v>
       </c>
       <c r="D34" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C35" s="31">
         <v>0.57499999999999996</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C36" s="65">
         <v>0.63600000000000001</v>
       </c>
       <c r="D36" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C37" s="31">
         <v>0.67400000000000004</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="62" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C38" s="65">
         <v>0.61099999999999999</v>
       </c>
       <c r="D38" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C39" s="31">
         <v>0.66700000000000004</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C40" s="65">
         <v>0.57899999999999996</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E40" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C41" s="31">
         <v>0.46870000000000001</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C42" s="65">
         <v>0.3125</v>
       </c>
       <c r="D42" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C43" s="59">
         <v>0.45</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="62" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C44" s="66">
         <v>0.65</v>
       </c>
       <c r="D44" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E44" s="63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>676</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>677</v>
       </c>
       <c r="C45" s="31">
         <v>0.373</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -6768,7 +6784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013C14A-D4D2-44E6-8741-5A1B7D7B98B4}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B28" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
@@ -6785,7 +6801,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6800,7 +6816,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="87" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B3" s="87"/>
       <c r="C3" s="87"/>
@@ -6816,13 +6832,13 @@
         <v>323</v>
       </c>
       <c r="C4" s="51" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>694</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="86" t="s">
         <v>695</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>696</v>
       </c>
       <c r="F4" s="86"/>
     </row>
@@ -6831,10 +6847,10 @@
         <v>329</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="D5" s="7">
         <v>1.51</v>
@@ -6851,10 +6867,10 @@
         <v>329</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D6" s="52">
         <v>0.85</v>
@@ -6871,10 +6887,10 @@
         <v>329</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D7" s="7">
         <v>1.64</v>
@@ -6891,10 +6907,10 @@
         <v>329</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D8" s="52">
         <v>1.26</v>
@@ -6908,13 +6924,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>703</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D9" s="7">
         <v>0.77</v>
@@ -6928,13 +6944,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>334</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D10" s="52">
         <v>0.71</v>
@@ -6948,7 +6964,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -6964,13 +6980,13 @@
         <v>323</v>
       </c>
       <c r="C13" s="51" t="s">
+        <v>693</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>694</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="E13" s="86" t="s">
         <v>695</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>696</v>
       </c>
       <c r="F13" s="86"/>
     </row>
@@ -6979,10 +6995,10 @@
         <v>329</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D14" s="7">
         <v>1.1200000000000001</v>
@@ -6999,10 +7015,10 @@
         <v>329</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D15" s="52">
         <v>1.19</v>
@@ -7016,13 +7032,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>703</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D16" s="7">
         <v>0.4</v>
@@ -7036,7 +7052,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -7052,13 +7068,13 @@
         <v>323</v>
       </c>
       <c r="C19" s="51" t="s">
+        <v>693</v>
+      </c>
+      <c r="D19" s="51" t="s">
         <v>694</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="E19" s="86" t="s">
         <v>695</v>
-      </c>
-      <c r="E19" s="86" t="s">
-        <v>696</v>
       </c>
       <c r="F19" s="86"/>
     </row>
@@ -7067,10 +7083,10 @@
         <v>330</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D20" s="7">
         <v>2.8</v>
@@ -7087,10 +7103,10 @@
         <v>330</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D21" s="52">
         <v>2.5</v>
@@ -7104,7 +7120,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="86" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="86"/>
@@ -7114,7 +7130,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
@@ -7130,25 +7146,25 @@
         <v>323</v>
       </c>
       <c r="C25" s="51" t="s">
+        <v>693</v>
+      </c>
+      <c r="D25" s="51" t="s">
         <v>694</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="E25" s="86" t="s">
         <v>695</v>
-      </c>
-      <c r="E25" s="86" t="s">
-        <v>696</v>
       </c>
       <c r="F25" s="86"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>331</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D26" s="7">
         <v>0.98</v>
@@ -7162,13 +7178,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>300</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D27" s="52">
         <v>19.559999999999999</v>
@@ -7182,13 +7198,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>326</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D28" s="7">
         <v>50</v>
@@ -7202,13 +7218,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D29" s="52">
         <v>1.71</v>
@@ -7222,7 +7238,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B31" s="85"/>
       <c r="C31" s="85"/>
@@ -7238,25 +7254,25 @@
         <v>323</v>
       </c>
       <c r="C32" s="51" t="s">
+        <v>693</v>
+      </c>
+      <c r="D32" s="51" t="s">
         <v>694</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="E32" s="86" t="s">
         <v>695</v>
-      </c>
-      <c r="E32" s="86" t="s">
-        <v>696</v>
       </c>
       <c r="F32" s="86"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>331</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D33" s="7">
         <v>0.84</v>
@@ -7270,13 +7286,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>300</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D34" s="52">
         <v>9.09</v>
@@ -7290,13 +7306,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>334</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D35" s="7">
         <v>0.34</v>
@@ -7310,7 +7326,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="86" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B37" s="86"/>
       <c r="C37" s="86"/>
@@ -7321,7 +7337,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="87" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B38" s="87"/>
       <c r="C38" s="87"/>
@@ -7338,25 +7354,25 @@
         <v>323</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D39" s="86" t="s">
         <v>114</v>
       </c>
       <c r="E39" s="86"/>
       <c r="F39" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="G39" s="51" t="s">
         <v>717</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>720</v>
       </c>
       <c r="C40" s="53">
         <v>0.29199999999999998</v>
@@ -7376,7 +7392,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>334</v>
@@ -7399,10 +7415,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C42" s="53">
         <v>3.5000000000000003E-2</v>
@@ -7422,7 +7438,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>332</v>
@@ -7445,7 +7461,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>333</v>
@@ -7468,7 +7484,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="85" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
@@ -7485,25 +7501,25 @@
         <v>323</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D47" s="86" t="s">
         <v>114</v>
       </c>
       <c r="E47" s="86"/>
       <c r="F47" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="G47" s="51" t="s">
         <v>717</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>720</v>
       </c>
       <c r="C48" s="53">
         <v>0.252</v>
@@ -7523,7 +7539,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>334</v>
@@ -7546,10 +7562,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C50" s="53">
         <v>3.1E-2</v>
@@ -7569,7 +7585,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>332</v>
@@ -7592,7 +7608,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>333</v>
@@ -7615,7 +7631,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="86" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B54" s="86"/>
       <c r="C54" s="86"/>
@@ -7624,7 +7640,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="87" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B55" s="87"/>
       <c r="C55" s="87"/>
@@ -7633,27 +7649,27 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="51" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B56" s="51" t="s">
         <v>323</v>
       </c>
       <c r="C56" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="D56" s="51" t="s">
         <v>726</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="E56" s="51" t="s">
         <v>727</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>730</v>
       </c>
       <c r="C57" s="7">
         <v>60.7</v>
@@ -7667,10 +7683,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C58" s="52">
         <v>18.7</v>
@@ -7684,10 +7700,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C59" s="7">
         <v>42</v>
@@ -7701,10 +7717,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C60" s="52">
         <v>23.4</v>
@@ -7718,7 +7734,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B62" s="85"/>
       <c r="C62" s="85"/>
@@ -7727,27 +7743,27 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B63" s="51" t="s">
         <v>323</v>
       </c>
       <c r="C63" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="D63" s="51" t="s">
         <v>726</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="E63" s="51" t="s">
         <v>727</v>
-      </c>
-      <c r="E63" s="51" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>730</v>
       </c>
       <c r="C64" s="7">
         <v>14.5</v>
@@ -7761,10 +7777,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C65" s="52">
         <v>0</v>
@@ -7778,10 +7794,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C66" s="7">
         <v>36.200000000000003</v>
@@ -7795,7 +7811,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="87" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B69" s="87"/>
       <c r="C69" s="87"/>
@@ -7806,19 +7822,19 @@
       <c r="A70" s="51"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D70" s="86" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E70" s="86"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>737</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>738</v>
       </c>
       <c r="C71" s="56">
         <v>5.5</v>
@@ -7832,10 +7848,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C72" s="57">
         <v>1.9</v>
@@ -7849,10 +7865,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C73" s="56">
         <v>2</v>
@@ -7866,10 +7882,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C74" s="57">
         <v>4.8</v>
@@ -7883,10 +7899,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C75" s="56">
         <v>1.2</v>
@@ -7900,10 +7916,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C76" s="57">
         <v>1.8</v>
@@ -7917,7 +7933,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>334</v>
@@ -7934,10 +7950,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C78" s="57">
         <v>0.9</v>
@@ -7951,10 +7967,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C79" s="56">
         <v>1.8</v>
@@ -7968,7 +7984,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="87" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B81" s="87"/>
       <c r="C81" s="87"/>
@@ -7979,21 +7995,21 @@
       <c r="A82" s="51"/>
       <c r="B82" s="51"/>
       <c r="C82" s="58" t="s">
+        <v>746</v>
+      </c>
+      <c r="D82" s="58" t="s">
         <v>747</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="E82" s="58" t="s">
         <v>748</v>
-      </c>
-      <c r="E82" s="58" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="B83" s="51" t="s">
         <v>750</v>
-      </c>
-      <c r="B83" s="51" t="s">
-        <v>751</v>
       </c>
       <c r="C83" s="53">
         <v>6.0000000000000001E-3</v>
@@ -8007,10 +8023,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="51" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C84" s="53">
         <v>3.6999999999999998E-2</v>
@@ -8024,7 +8040,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="51" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B85" s="51" t="s">
         <v>333</v>
@@ -8091,31 +8107,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="90" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
       <c r="I1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B2" t="s">
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D2" t="s">
         <v>753</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F2" t="s">
         <v>527</v>
@@ -8124,7 +8140,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B3" t="s">
         <v>372</v>
@@ -8157,10 +8173,10 @@
         <v>376</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J4" t="s">
         <v>568</v>
@@ -8187,7 +8203,7 @@
         <v>381</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I5" t="s">
         <v>570</v>
@@ -8345,19 +8361,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B11" t="s">
         <v>373</v>
       </c>
       <c r="C11" t="s">
+        <v>752</v>
+      </c>
+      <c r="D11" t="s">
         <v>753</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F11" t="s">
         <v>527</v>
@@ -8378,16 +8394,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B12" t="s">
         <v>372</v>
       </c>
       <c r="C12" s="67" t="s">
+        <v>590</v>
+      </c>
+      <c r="D12" s="67" t="s">
         <v>591</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>592</v>
       </c>
       <c r="E12" s="42">
         <v>0.81</v>
@@ -8410,13 +8426,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C13" s="67" t="s">
+        <v>592</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>593</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>594</v>
       </c>
       <c r="E13" s="42">
         <v>0.08</v>
@@ -8439,13 +8455,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C14" s="67" t="s">
+        <v>594</v>
+      </c>
+      <c r="D14" s="67" t="s">
         <v>595</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>596</v>
       </c>
       <c r="E14" s="42">
         <v>0.17</v>
@@ -8454,13 +8470,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C15" s="67" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" s="67" t="s">
         <v>597</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>598</v>
       </c>
       <c r="E15" s="42">
         <v>0.01</v>
@@ -8468,19 +8484,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B18" t="s">
         <v>373</v>
       </c>
       <c r="C18" t="s">
+        <v>752</v>
+      </c>
+      <c r="D18" t="s">
         <v>753</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F18" t="s">
         <v>527</v>
@@ -8488,7 +8504,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B19" t="s">
         <v>394</v>
@@ -8517,7 +8533,7 @@
         <v>396</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8559,7 +8575,7 @@
         <v>407</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8592,19 +8608,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B27" t="s">
         <v>373</v>
       </c>
       <c r="C27" t="s">
+        <v>752</v>
+      </c>
+      <c r="D27" t="s">
         <v>753</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F27" t="s">
         <v>527</v>
@@ -8619,7 +8635,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B29" t="s">
         <v>414</v>
@@ -8639,7 +8655,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B30" t="s">
         <v>397</v>
@@ -8656,7 +8672,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B31" t="s">
         <v>403</v>
@@ -8673,7 +8689,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B32" t="s">
         <v>421</v>
@@ -8690,7 +8706,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B33" t="s">
         <v>424</v>
@@ -8714,7 +8730,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B36" t="s">
         <v>426</v>
@@ -8731,7 +8747,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B37" t="s">
         <v>430</v>
@@ -8748,7 +8764,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B38" t="s">
         <v>433</v>
@@ -8765,7 +8781,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B39" t="s">
         <v>421</v>
@@ -8782,7 +8798,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B40" t="s">
         <v>424</v>
@@ -8806,7 +8822,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B43" t="s">
         <v>414</v>
@@ -8823,7 +8839,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B44" t="s">
         <v>397</v>
@@ -8840,7 +8856,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B45" t="s">
         <v>403</v>
@@ -8857,7 +8873,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B46" t="s">
         <v>421</v>
@@ -8874,7 +8890,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B47" t="s">
         <v>424</v>
@@ -8891,19 +8907,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B49" t="s">
         <v>373</v>
       </c>
       <c r="C49" t="s">
+        <v>752</v>
+      </c>
+      <c r="D49" t="s">
         <v>753</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F49" t="s">
         <v>527</v>
@@ -8911,7 +8927,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B50" t="s">
         <v>405</v>
@@ -8931,7 +8947,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B51" t="s">
         <v>452</v>
@@ -8948,7 +8964,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B52" t="s">
         <v>455</v>
@@ -8965,7 +8981,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B53" t="s">
         <v>383</v>
@@ -8982,7 +8998,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B54" t="s">
         <v>377</v>
@@ -8999,7 +9015,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B55" t="s">
         <v>462</v>
@@ -9016,7 +9032,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B56" t="s">
         <v>465</v>
@@ -9033,19 +9049,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B58" t="s">
         <v>373</v>
       </c>
       <c r="C58" t="s">
+        <v>752</v>
+      </c>
+      <c r="D58" t="s">
         <v>753</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E58" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F58" t="s">
         <v>527</v>
@@ -9053,7 +9069,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B59" t="s">
         <v>405</v>
@@ -9070,7 +9086,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B60" t="s">
         <v>424</v>
@@ -9082,12 +9098,12 @@
         <v>469</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B61" t="s">
         <v>409</v>
@@ -9099,12 +9115,12 @@
         <v>473</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B62" t="s">
         <v>391</v>
@@ -9116,12 +9132,12 @@
         <v>471</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B63" t="s">
         <v>377</v>
@@ -9133,12 +9149,12 @@
         <v>475</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B64" t="s">
         <v>455</v>
@@ -9155,19 +9171,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B66" t="s">
         <v>373</v>
       </c>
       <c r="C66" t="s">
+        <v>752</v>
+      </c>
+      <c r="D66" t="s">
         <v>753</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F66" t="s">
         <v>527</v>
@@ -9175,7 +9191,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B67" t="s">
         <v>414</v>
@@ -9192,7 +9208,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B68" t="s">
         <v>421</v>
@@ -9204,12 +9220,12 @@
         <v>481</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B69" t="s">
         <v>485</v>
@@ -9221,12 +9237,12 @@
         <v>484</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B70" t="s">
         <v>452</v>
@@ -9238,24 +9254,24 @@
         <v>486</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B72" t="s">
         <v>373</v>
       </c>
       <c r="C72" t="s">
+        <v>752</v>
+      </c>
+      <c r="D72" t="s">
         <v>753</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E72" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F72" t="s">
         <v>527</v>
@@ -9263,7 +9279,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B73" t="s">
         <v>405</v>
@@ -9283,7 +9299,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B74" t="s">
         <v>455</v>
@@ -9295,12 +9311,12 @@
         <v>490</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B75" t="s">
         <v>383</v>
@@ -9317,7 +9333,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B76" t="s">
         <v>377</v>
@@ -9334,7 +9350,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B77" t="s">
         <v>497</v>
@@ -9351,19 +9367,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B79" t="s">
         <v>373</v>
       </c>
       <c r="C79" t="s">
+        <v>752</v>
+      </c>
+      <c r="D79" t="s">
         <v>753</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E79" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F79" t="s">
         <v>527</v>
@@ -9371,7 +9387,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B80" t="s">
         <v>405</v>
@@ -9388,7 +9404,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B81" t="s">
         <v>424</v>
@@ -9400,12 +9416,12 @@
         <v>502</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B82" t="s">
         <v>409</v>
@@ -9417,12 +9433,12 @@
         <v>504</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B83" t="s">
         <v>465</v>
@@ -9434,12 +9450,12 @@
         <v>506</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B84" t="s">
         <v>377</v>
@@ -9451,12 +9467,12 @@
         <v>507</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B85" t="s">
         <v>455</v>
@@ -9473,7 +9489,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B86" t="s">
         <v>383</v>
@@ -9487,19 +9503,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B88" t="s">
         <v>373</v>
       </c>
       <c r="C88" t="s">
+        <v>752</v>
+      </c>
+      <c r="D88" t="s">
         <v>753</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E88" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F88" t="s">
         <v>527</v>
@@ -9507,16 +9523,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B89" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C89" s="68" t="s">
+        <v>600</v>
+      </c>
+      <c r="D89" s="68" t="s">
         <v>601</v>
-      </c>
-      <c r="D89" s="68" t="s">
-        <v>602</v>
       </c>
       <c r="E89" s="42">
         <v>0.03</v>
@@ -9527,7 +9543,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B90" t="s">
         <v>455</v>
@@ -9544,7 +9560,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B91" t="s">
         <v>383</v>
@@ -9561,19 +9577,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B93" t="s">
         <v>373</v>
       </c>
       <c r="C93" t="s">
+        <v>752</v>
+      </c>
+      <c r="D93" t="s">
         <v>753</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" s="42" t="s">
         <v>754</v>
-      </c>
-      <c r="E93" s="42" t="s">
-        <v>755</v>
       </c>
       <c r="F93" t="s">
         <v>527</v>
@@ -9581,7 +9597,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B94" t="s">
         <v>405</v>
@@ -9593,7 +9609,7 @@
         <v>518</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F94" t="s">
         <v>536</v>
@@ -9601,7 +9617,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B95" t="s">
         <v>377</v>
@@ -9613,12 +9629,12 @@
         <v>520</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B96" t="s">
         <v>497</v>
@@ -9630,12 +9646,12 @@
         <v>522</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B97" t="s">
         <v>383</v>
@@ -9647,12 +9663,12 @@
         <v>524</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B98" t="s">
         <v>455</v>
@@ -9664,7 +9680,7 @@
         <v>525</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
